--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1720.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1720.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.547304573840297</v>
+        <v>0.8429523706436157</v>
       </c>
       <c r="B1">
-        <v>1.539257837485367</v>
+        <v>1.84393298625946</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.437848701938181</v>
+        <v>1.938547730445862</v>
       </c>
       <c r="E1">
-        <v>1.583867027396628</v>
+        <v>1.144961476325989</v>
       </c>
     </row>
   </sheetData>
